--- a/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/RAW COUNTRED_POPxHERBxDOSE.xlsx
+++ b/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/RAW COUNTRED_POPxHERBxDOSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_B122AFEF86E1BB4B5763847906F6B5223B5F61AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38AFCE04-18DD-4292-8430-86BCF4AACB37}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_B122AFEF86E1BB4B5763847906F6B5223B5F61AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C788EF7-2AFE-421A-9E31-CA3F676BB559}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,25 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$46</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="21">
   <si>
     <t>pop</t>
   </si>
@@ -80,6 +91,12 @@
   </si>
   <si>
     <t>Dose</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
   </si>
 </sst>
 </file>
@@ -413,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +461,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -470,10 +493,18 @@
         <v>0.12270321177500799</v>
       </c>
       <c r="H2">
+        <f>E2-G2</f>
+        <v>2.4574015999991997E-2</v>
+      </c>
+      <c r="I2">
+        <f>E2+G2</f>
+        <v>0.269980439550008</v>
+      </c>
+      <c r="J2">
         <v>0.240493875866407</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -496,10 +527,18 @@
         <v>0.15144471071646801</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H46" si="0">E3-G3</f>
+        <v>0.34707014078353204</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I46" si="1">E3+G3</f>
+        <v>0.649959562216468</v>
+      </c>
+      <c r="J3">
         <v>0.29682617865336502</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -522,10 +561,18 @@
         <v>0.13225071086360701</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.430703084511393</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.69520450623860697</v>
+      </c>
+      <c r="J4">
         <v>0.25920663022249002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -548,10 +595,18 @@
         <v>0.119892850094262</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.710814192905738</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.95059989309426196</v>
+      </c>
+      <c r="J5">
         <v>0.234985668188612</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -574,10 +629,18 @@
         <v>7.6551213033810198E-2</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.75768971101618987</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.91079213708381024</v>
+      </c>
+      <c r="J6">
         <v>0.15003762051912101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -600,10 +663,18 @@
         <v>3.5276046144746998E-2</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.90470751095525304</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.97525960324474703</v>
+      </c>
+      <c r="J7">
         <v>6.9139779960677203E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -626,10 +697,18 @@
         <v>2.5925335390771801E-2</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.91990799789672817</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.97175866867827176</v>
+      </c>
+      <c r="J8">
         <v>5.0812723653034499E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -652,10 +731,18 @@
         <v>1.6746968347292699E-2</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.93845105144020724</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.97194498813479269</v>
+      </c>
+      <c r="J9">
         <v>3.2823454810925898E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -678,10 +765,18 @@
         <v>2.6305214025183599E-2</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.93619478589981642</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.98880521395018361</v>
+      </c>
+      <c r="J10">
         <v>5.1557272094977701E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -704,10 +799,18 @@
         <v>2.1047003436673602E-2</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.94589599458832629</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.98799000146167359</v>
+      </c>
+      <c r="J11">
         <v>4.1251368718370901E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -730,10 +833,18 @@
         <v>3.4158170975436497E-2</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.89441325754956347</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.96272959950043646</v>
+      </c>
+      <c r="J12">
         <v>6.6948784889617002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -756,10 +867,18 @@
         <v>7.3556592010259898E-3</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.98140838567397404</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.99611970407602601</v>
+      </c>
+      <c r="J13">
         <v>1.4416827116561601E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -782,10 +901,18 @@
         <v>8.3333333249999992E-3</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.98333333325000005</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J14">
         <v>1.6333033188167399E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -808,10 +935,18 @@
         <v>1.5451497039929599E-2</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.95550337698507037</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.98640637106492968</v>
+      </c>
+      <c r="J15">
         <v>3.02843777054892E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -834,10 +969,18 @@
         <v>1.01469437957871E-2</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.97136223921671294</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.99165612680828708</v>
+      </c>
+      <c r="J16">
         <v>1.98876443928949E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -860,10 +1003,18 @@
         <v>0.162270848686415</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.36852525986358503</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.69306695723641498</v>
+      </c>
+      <c r="J17">
         <v>0.31804501916612199</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -886,10 +1037,18 @@
         <v>0.12996440231346201</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.64247325183653792</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.90240205646346205</v>
+      </c>
+      <c r="J18">
         <v>0.25472554780666001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -912,10 +1071,18 @@
         <v>1.9654735024251298E-2</v>
       </c>
       <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.94519864941324871</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.98450811946175132</v>
+      </c>
+      <c r="J19">
         <v>3.8522572773210598E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -938,10 +1105,18 @@
         <v>4.9504950374999997E-3</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.99009900982499999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J20">
         <v>9.7027919791442593E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -964,10 +1139,18 @@
         <v>4.1666666500000003E-3</v>
       </c>
       <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.99166666660000002</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J21">
         <v>8.1665165695841493E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -990,10 +1173,18 @@
         <v>3.0487804749999999E-3</v>
       </c>
       <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.99390243894999997</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J22">
         <v>5.9754999277689099E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1016,10 +1207,18 @@
         <v>3.0487804749999999E-3</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.99390243894999997</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J23">
         <v>5.9754999277689099E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1042,10 +1241,18 @@
         <v>3.0487804749999999E-3</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.99390243894999997</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J24">
         <v>5.9754999277689099E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1068,10 +1275,18 @@
         <v>1.2202050966880901E-2</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.96939023683311909</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.99379433876688084</v>
+      </c>
+      <c r="J25">
         <v>2.3915580432608701E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1094,10 +1309,18 @@
         <v>5.5672410499225996E-3</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.98649625093757742</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.99763073303742256</v>
+      </c>
+      <c r="J26">
         <v>1.09115919511012E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1120,10 +1343,18 @@
         <v>2.4752475125000002E-3</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.9950495048750001</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J27">
         <v>4.8513959773223599E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1146,10 +1377,18 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1172,10 +1411,18 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1198,10 +1445,18 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1224,10 +1479,18 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1250,10 +1513,18 @@
         <v>3.4457047017239098E-3</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.99129099152327615</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.99818240092672395</v>
+      </c>
+      <c r="J32">
         <v>6.7534571167391904E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1276,10 +1547,18 @@
         <v>2.6455026374999999E-3</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.99470899462500006</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J33">
         <v>5.1850898905057303E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1302,10 +1581,18 @@
         <v>2.61780103749999E-3</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.99476439782500004</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J34">
         <v>5.1307957521915699E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1328,10 +1615,18 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1354,10 +1649,18 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1380,10 +1683,18 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1406,10 +1717,18 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1432,10 +1751,18 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1458,10 +1785,18 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1484,10 +1819,18 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1510,10 +1853,18 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1536,10 +1887,18 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1562,10 +1921,18 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1588,10 +1955,18 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1614,11 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H46" xr:uid="{00425912-23D5-4779-9612-D2931FDC20E7}"/>
+  <autoFilter ref="A1:J46" xr:uid="{00425912-23D5-4779-9612-D2931FDC20E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/RAW COUNTRED_POPxHERBxDOSE.xlsx
+++ b/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/RAW COUNTRED_POPxHERBxDOSE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Palmer amaranth Resistance/Data Analysis - PRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_B122AFEF86E1BB4B5763847906F6B5223B5F61AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C788EF7-2AFE-421A-9E31-CA3F676BB559}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_B122AFEF86E1BB4B5763847906F6B5223B5F61AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD71459A-42B8-4414-A1C2-73A5E7354735}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
